--- a/reports/_OCC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_20_.xlsx
+++ b/reports/_OCC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_20_.xlsx
@@ -1886,10 +1886,10 @@
           <t>2018-5192</t>
         </is>
       </c>
-      <c r="X6" s="0" t="d">
+      <c r="X6" s="4" t="d">
         <v>2018-03-26T00:00:00</v>
       </c>
-      <c r="Y6" s="0" t="d">
+      <c r="Y6" s="4" t="d">
         <v>2018-03-26T00:00:00</v>
       </c>
       <c r="Z6" s="0" t="inlineStr">
@@ -3705,7 +3705,7 @@
         </is>
       </c>
       <c r="V6" s="0"/>
-      <c r="W6" s="0" t="d">
+      <c r="W6" s="4" t="d">
         <v>2018-09-15T00:00:00</v>
       </c>
     </row>

--- a/reports/_OCC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_20_.xlsx
+++ b/reports/_OCC_SUMMIT ALLIANCE PORT LIMITED_import_container_report_2018-12-03_20_.xlsx
@@ -1639,7 +1639,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:13</t>
+          <t>Total number of containers:13</t>
         </is>
       </c>
     </row>
@@ -3497,7 +3497,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:13</t>
+          <t>Total number of containers:13</t>
         </is>
       </c>
     </row>
